--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,6 +52,9 @@
     <t>returned</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
@@ -67,18 +70,15 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
@@ -88,106 +88,115 @@
     <t>pleased</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>son</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
     <t>rice</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
     <t>years</t>
   </si>
   <si>
-    <t>popcorn</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>pop</t>
   </si>
   <si>
     <t>day</t>
@@ -199,7 +208,10 @@
     <t>easy</t>
   </si>
   <si>
-    <t>always</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>simple</t>
   </si>
   <si>
     <t>kitchen</t>
@@ -208,106 +220,103 @@
     <t>cook</t>
   </si>
   <si>
-    <t>tea</t>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>making</t>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>dish</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>pan</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>makes</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>last</t>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>coffee</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>made</t>
+    <t>used</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -668,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,10 +685,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -737,13 +746,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -755,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -787,13 +796,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -805,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>0.967741935483871</v>
@@ -837,13 +846,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3953488372093023</v>
+        <v>0.3643410852713178</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -855,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.8828125</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -879,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -887,13 +896,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2929292929292929</v>
+        <v>0.3131313131313131</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -905,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8840579710144928</v>
+        <v>0.8560371517027864</v>
       </c>
       <c r="L6">
-        <v>61</v>
+        <v>553</v>
       </c>
       <c r="M6">
-        <v>61</v>
+        <v>553</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -929,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -937,13 +946,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1243243243243243</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -955,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8498452012383901</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L7">
-        <v>549</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>549</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -979,21 +988,45 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>97</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.1351351351351351</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>160</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8478260869565217</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1005,21 +1038,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1031,21 +1064,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1057,47 +1090,47 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L11">
+        <v>55</v>
+      </c>
+      <c r="M11">
+        <v>55</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>22</v>
-      </c>
-      <c r="K11">
-        <v>0.7316017316017316</v>
-      </c>
-      <c r="L11">
-        <v>169</v>
-      </c>
-      <c r="M11">
-        <v>169</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7142857142857143</v>
+        <v>0.7016949152542373</v>
       </c>
       <c r="L12">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="M12">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,21 +1142,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7111111111111111</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1135,21 +1168,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.6666666666666666</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1161,21 +1194,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.6610169491525424</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L15">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1187,21 +1220,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.647887323943662</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1213,21 +1246,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6356340288924559</v>
+        <v>0.6316211878009631</v>
       </c>
       <c r="L17">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="M17">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1239,21 +1272,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6153846153846154</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1265,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6027397260273972</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1291,21 +1324,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.5789473684210527</v>
+        <v>0.59375</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1317,21 +1350,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.578125</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1343,21 +1376,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5714285714285714</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1369,21 +1402,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5673076923076923</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L23">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="M23">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1395,21 +1428,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5625</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1421,21 +1454,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5588235294117647</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1447,21 +1480,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5555555555555556</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1473,21 +1506,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5538461538461539</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1499,21 +1532,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5490196078431373</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1525,21 +1558,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5470085470085471</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L29">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="M29">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1551,21 +1584,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5428571428571428</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L30">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1577,21 +1610,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>80</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.5421686746987951</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="M31">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1603,21 +1636,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.5209580838323353</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L32">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1629,21 +1662,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.5138888888888888</v>
+        <v>0.49</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1655,21 +1688,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.5102040816326531</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1681,15 +1714,15 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.4567901234567901</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="L35">
         <v>37</v>
@@ -1707,21 +1740,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.45</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="L36">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1733,21 +1766,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.4489795918367347</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1759,47 +1792,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.4473684210526316</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L38">
+        <v>27</v>
+      </c>
+      <c r="M38">
+        <v>27</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>34</v>
-      </c>
-      <c r="M38">
-        <v>34</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>42</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.4060150375939849</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="L39">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M39">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1811,21 +1844,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>0.3975903614457831</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L40">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1837,21 +1870,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>100</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>0.3735408560311284</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L41">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="M41">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1863,21 +1896,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>161</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K42">
-        <v>0.3684210526315789</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L42">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1889,21 +1922,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K43">
-        <v>0.3676470588235294</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L43">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1915,21 +1948,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>258</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K44">
-        <v>0.3548387096774194</v>
+        <v>0.3693693693693694</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1941,21 +1974,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K45">
-        <v>0.3513513513513514</v>
+        <v>0.3676470588235294</v>
       </c>
       <c r="L45">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1967,21 +2000,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K46">
-        <v>0.3382352941176471</v>
+        <v>0.3618677042801556</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1993,21 +2026,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>45</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K47">
-        <v>0.3366336633663367</v>
+        <v>0.3602941176470588</v>
       </c>
       <c r="L47">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="M47">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2019,21 +2052,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>67</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K48">
-        <v>0.3308270676691729</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L48">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2045,21 +2078,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>89</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K49">
-        <v>0.3136986301369863</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L49">
-        <v>229</v>
+        <v>34</v>
       </c>
       <c r="M49">
-        <v>229</v>
+        <v>34</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2071,21 +2104,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>501</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K50">
-        <v>0.2976190476190476</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L50">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2097,21 +2130,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K51">
-        <v>0.2870813397129187</v>
+        <v>0.3232876712328767</v>
       </c>
       <c r="L51">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="M51">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2123,21 +2156,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>149</v>
+        <v>494</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K52">
-        <v>0.2777777777777778</v>
+        <v>0.316546762589928</v>
       </c>
       <c r="L52">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2149,21 +2182,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K53">
-        <v>0.2733812949640288</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L53">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M53">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2175,21 +2208,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K54">
-        <v>0.2522522522522522</v>
+        <v>0.2966507177033493</v>
       </c>
       <c r="L54">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="M54">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2201,21 +2234,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>83</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K55">
-        <v>0.2391304347826087</v>
+        <v>0.287037037037037</v>
       </c>
       <c r="L55">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2227,21 +2260,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K56">
-        <v>0.2317880794701987</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L56">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M56">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2253,21 +2286,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K57">
-        <v>0.23</v>
+        <v>0.2378902045209903</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="M57">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2279,21 +2312,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>77</v>
+        <v>708</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K58">
-        <v>0.2293577981651376</v>
+        <v>0.2342342342342342</v>
       </c>
       <c r="L58">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M58">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2305,47 +2338,47 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K59">
-        <v>0.2285714285714286</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="L59">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M59">
         <v>24</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K60">
-        <v>0.2195909580193757</v>
+        <v>0.2026490066225166</v>
       </c>
       <c r="L60">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="M60">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2357,21 +2390,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>725</v>
+        <v>602</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K61">
-        <v>0.2073170731707317</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="L61">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M61">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2383,21 +2416,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>130</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K62">
-        <v>0.2039735099337748</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L62">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="M62">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2409,21 +2442,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>601</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K63">
-        <v>0.2037617554858934</v>
+        <v>0.1943734015345268</v>
       </c>
       <c r="L63">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="M63">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2435,21 +2468,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>254</v>
+        <v>630</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K64">
-        <v>0.1777493606138107</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="L64">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="M64">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2461,21 +2494,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>643</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K65">
-        <v>0.174496644295302</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L65">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M65">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2487,21 +2520,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K66">
-        <v>0.1581920903954802</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L66">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2513,47 +2546,47 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>149</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K67">
-        <v>0.1540540540540541</v>
+        <v>0.1595092024539877</v>
       </c>
       <c r="L67">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="M67">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="N67">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>313</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K68">
-        <v>0.1476014760147601</v>
+        <v>0.1590296495956873</v>
       </c>
       <c r="L68">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M68">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2565,21 +2598,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>231</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K69">
-        <v>0.147239263803681</v>
+        <v>0.1549815498154982</v>
       </c>
       <c r="L69">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M69">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2591,21 +2624,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>139</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K70">
-        <v>0.140893470790378</v>
+        <v>0.1412429378531073</v>
       </c>
       <c r="L70">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M70">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2617,21 +2650,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>250</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K71">
-        <v>0.1359649122807018</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="L71">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M71">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2643,21 +2676,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>394</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K72">
-        <v>0.1333333333333333</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="L72">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M72">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2669,21 +2702,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K73">
-        <v>0.1312649164677804</v>
+        <v>0.1336515513126492</v>
       </c>
       <c r="L73">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M73">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2695,47 +2728,47 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K74">
-        <v>0.1287128712871287</v>
+        <v>0.1271929824561404</v>
       </c>
       <c r="L74">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="M74">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="N74">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>176</v>
+        <v>398</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K75">
-        <v>0.1265206812652068</v>
+        <v>0.127147766323024</v>
       </c>
       <c r="L75">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="M75">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2747,21 +2780,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>359</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K76">
-        <v>0.1185185185185185</v>
+        <v>0.1259259259259259</v>
       </c>
       <c r="L76">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M76">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2773,21 +2806,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K77">
-        <v>0.1181818181818182</v>
+        <v>0.1227272727272727</v>
       </c>
       <c r="L77">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M77">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2799,21 +2832,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K78">
-        <v>0.1050420168067227</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="L78">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M78">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2825,47 +2858,47 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>213</v>
+        <v>366</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K79">
-        <v>0.08034433285509325</v>
+        <v>0.09663865546218488</v>
       </c>
       <c r="L79">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M79">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="N79">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>641</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K80">
-        <v>0.07923497267759563</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="L80">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M80">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2877,47 +2910,47 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>337</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K81">
-        <v>0.07383177570093458</v>
+        <v>0.08455882352941177</v>
       </c>
       <c r="L81">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="M81">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="N81">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>991</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K82">
-        <v>0.06091370558375635</v>
+        <v>0.07369402985074627</v>
       </c>
       <c r="L82">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="M82">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -2929,111 +2962,163 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>370</v>
+        <v>993</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K83">
-        <v>0.05811138014527845</v>
+        <v>0.07173601147776183</v>
       </c>
       <c r="L83">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M83">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="N83">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O83">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>389</v>
+        <v>647</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K84">
-        <v>0.04805914972273567</v>
+        <v>0.06830601092896176</v>
       </c>
       <c r="L84">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M84">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N84">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>515</v>
+        <v>341</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K85">
-        <v>0.04419410745233969</v>
+        <v>0.05597964376590331</v>
       </c>
       <c r="L85">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M85">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="N85">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O85">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>1103</v>
+        <v>371</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K86">
-        <v>0.03145478374836173</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="L86">
         <v>24</v>
       </c>
       <c r="M86">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N86">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="O86">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>739</v>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K87">
+        <v>0.04428044280442804</v>
+      </c>
+      <c r="L87">
+        <v>24</v>
+      </c>
+      <c r="M87">
+        <v>24</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K88">
+        <v>0.04329004329004329</v>
+      </c>
+      <c r="L88">
+        <v>50</v>
+      </c>
+      <c r="M88">
+        <v>52</v>
+      </c>
+      <c r="N88">
+        <v>0.96</v>
+      </c>
+      <c r="O88">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
